--- a/ApartoBotFramework/Data/Config.xlsx
+++ b/ApartoBotFramework/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Hello RPA\ApartoBotFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\220425-UiPath\project2\ApartoBotFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C45601-A435-4D1C-890C-EFDBE39C9BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040D102-FB9E-4BF4-861C-3A8A3F6A91B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44910" yWindow="12720" windowWidth="16080" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="405" windowWidth="16080" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -162,7 +162,13 @@
     <t>User Tranasaction</t>
   </si>
   <si>
-    <t>UserQueue</t>
+    <t>User Transaction</t>
+  </si>
+  <si>
+    <t>ApartoBot</t>
+  </si>
+  <si>
+    <t>CustomerInfo</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -591,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -601,7 +607,9 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
@@ -2786,7 +2794,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -2838,7 +2846,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
